--- a/individual_case_outputs/avey/216.xlsx
+++ b/individual_case_outputs/avey/216.xlsx
@@ -586,7 +586,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>polyarteritis nodosa</t>
+          <t>mixed connective tissue disease</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>henoch-schönlein purpura</t>
+          <t>rocky mountin spotted fever</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -865,7 +865,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>erythema nodosum</t>
+          <t>systemic lupus erythematosus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -874,7 +874,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>systemic sclerosis</t>
+          <t>scleroderma</t>
         </is>
       </c>
       <c r="M5" t="inlineStr"/>
@@ -918,7 +918,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>mixed connective tissue disease</t>
+          <t>henoch-schönlein purpura</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
